--- a/substack/articles/2025.01.13-integration_with_gcs_ease/ease matrix.xlsx
+++ b/substack/articles/2025.01.13-integration_with_gcs_ease/ease matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewmartin/dream_machine/substack/articles/2025.01.13-integration_with_gcs_ease/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D52D4E-A5DA-3142-A06F-C25611547FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67F7E9F-CAC7-9248-A28C-B2EAC6170EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{75DF1BFB-0FEE-8848-9360-DDAE89B93F23}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{75DF1BFB-0FEE-8848-9360-DDAE89B93F23}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -885,69 +885,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>283634</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>8467</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Octagon 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6536F58-8DDE-A8DA-635B-EECEAD54EDA6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8106834" y="2243667"/>
-          <a:ext cx="173566" cy="169333"/>
-        </a:xfrm>
-        <a:prstGeom prst="octagon">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>956734</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -1102,6 +1039,74 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5105400" y="3090334"/>
+          <a:ext cx="203200" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>270933</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>474133</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>173567</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Triangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A31C27A0-C3BF-3346-988E-EC8BD9C1AE59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8094133" y="2269067"/>
           <a:ext cx="203200" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
@@ -1466,7 +1471,7 @@
   <dimension ref="F10:J17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
